--- a/synthesis/Covariates included in each study analysis.xlsx
+++ b/synthesis/Covariates included in each study analysis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>MAP</t>
   </si>
@@ -42,16 +42,68 @@
   </si>
   <si>
     <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Nuage</t>
+  </si>
+  <si>
+    <t>OCTO</t>
+  </si>
+  <si>
+    <t>LASA</t>
+  </si>
+  <si>
+    <t>ILSE</t>
+  </si>
+  <si>
+    <t>HRS</t>
+  </si>
+  <si>
+    <t>Cardio?</t>
+  </si>
+  <si>
+    <t>Cardio</t>
+  </si>
+  <si>
+    <t>Heightc</t>
+  </si>
+  <si>
+    <t>smokeHx</t>
+  </si>
+  <si>
+    <t>Bage</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>SmokHx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,8 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,45 +413,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G1:G7"/>
+  <dimension ref="D1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G1" t="s">
+    <row r="1" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
       <c r="G4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>